--- a/PatternObjectModel/data/TC003_CreateLead.xlsx
+++ b/PatternObjectModel/data/TC003_CreateLead.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test Leaf Files\PatternObjectModel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repository\PatternObjectModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -54,13 +54,28 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>PhnO</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Person to ask</t>
+  </si>
+  <si>
+    <t>kishore123@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +94,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,15 +130,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -407,10 +433,12 @@
     <col min="3" max="3" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -426,8 +454,17 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -443,9 +480,21 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/PatternObjectModel/data/TC003_CreateLead.xlsx
+++ b/PatternObjectModel/data/TC003_CreateLead.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Kishore</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
@@ -134,11 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,7 +427,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -480,8 +484,8 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <v>1234567890</v>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>

--- a/PatternObjectModel/data/TC003_CreateLead.xlsx
+++ b/PatternObjectModel/data/TC003_CreateLead.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
   <si>
     <t>LastName</t>
-  </si>
-  <si>
-    <t>Google</t>
   </si>
   <si>
     <t>Kumar</t>
@@ -427,7 +424,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -444,54 +441,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
